--- a/docs/Definitionen-CoE.xlsx
+++ b/docs/Definitionen-CoE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IP-Symcon\SymconData\modules\JoT.TACoE\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689E36F1-7061-4BAD-9A1C-D78487579C15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB14C5-8BB2-4BD6-8743-2419789CA959}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12170" xr2:uid="{F434727D-110C-473E-83DD-D7BF766596EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>UnitID</t>
   </si>
@@ -268,6 +268,21 @@
   </si>
   <si>
     <t>Decimals</t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>TA rundet die 2 Nachkommastrellen auf den Reglern bei der Übetragung via CAN auf 1 Nachkommastelle auf/ab</t>
+  </si>
+  <si>
+    <t>Auf UVR16x sind Werte von -10'000.00 bis 10'000.00 möglich. Via CAN ist technisch ist aber mit 16Bit nur -327.68 bis 327.67 möglich.</t>
+  </si>
+  <si>
+    <t>Auf UVR16x sind Werte von -9999999.99 bis 10000000.00. Via CAN ist technisch ist aber mit 16Bit nur -327.68 bis 327.67 möglich.</t>
+  </si>
+  <si>
+    <t>Auf UVR16x sind Werte von -9'999.00000 bis 10'000.00 möglich. Via CAN ist technisch ist aber mit 16Bit nur -0.32768 bis 0.32767 möglich.</t>
   </si>
 </sst>
 </file>
@@ -325,7 +340,10 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -346,13 +364,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5022337F-FAAE-45C3-94BE-96C2215ED879}" name="Tabelle1" displayName="Tabelle1" ref="A1:D77" totalsRowShown="0">
-  <autoFilter ref="A1:D77" xr:uid="{236E5A47-4878-4E87-8077-22B9B3039399}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{624F607F-C893-4DAA-BD94-A190CA07AF43}" name="UnitID" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5022337F-FAAE-45C3-94BE-96C2215ED879}" name="Tabelle1" displayName="Tabelle1" ref="A1:E77" totalsRowShown="0">
+  <autoFilter ref="A1:E77" xr:uid="{236E5A47-4878-4E87-8077-22B9B3039399}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{624F607F-C893-4DAA-BD94-A190CA07AF43}" name="UnitID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{D29265C9-6FA1-413F-8E6E-8398BAEF64B4}" name="Name"/>
     <tableColumn id="3" xr3:uid="{E8B5A255-AC9C-4087-BBD4-278AFAE980A6}" name="Suffix"/>
-    <tableColumn id="4" xr3:uid="{6B2FB8C0-FE09-462C-AC09-0CAD969F39CA}" name="Decimals" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{EF21BD93-BA37-4C0D-A63F-01EBBE115FC1}" name="Decimals" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6B2FB8C0-FE09-462C-AC09-0CAD969F39CA}" name="Bemerkungen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -655,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB79719B-EC04-413C-8228-46D1A698E9BE}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,12 +685,13 @@
     <col min="1" max="1" width="10.90625" style="1"/>
     <col min="2" max="2" width="16.26953125" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="115.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,8 +704,11 @@
       <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -696,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -710,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -724,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -737,9 +760,9 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -752,11 +775,11 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -769,11 +792,11 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -787,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -815,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -823,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -834,10 +857,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -851,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -865,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -879,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -893,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -907,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -921,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -935,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -949,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -963,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -977,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -991,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1005,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1019,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1029,8 +1055,11 @@
       <c r="D26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1038,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1052,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1066,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1080,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1088,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1272,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1280,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1288,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1296,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1309,8 +1338,11 @@
       <c r="D52" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1323,8 +1355,11 @@
       <c r="D53" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1338,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1348,8 +1383,11 @@
       <c r="D55" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1363,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1371,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1379,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1387,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1398,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1412,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1426,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1434,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
